--- a/biology/Histoire de la zoologie et de la botanique/Barry_Commoner/Barry_Commoner.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Barry_Commoner/Barry_Commoner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barry Commoner, né le 28 mai 1917 à Brooklyn et mort le 30 septembre 2012[1], est un biologiste américain. Il a notamment participé à l’élection présidentielle américaine en 1980 pour le Parti des citoyens (en).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barry Commoner, né le 28 mai 1917 à Brooklyn et mort le 30 septembre 2012, est un biologiste américain. Il a notamment participé à l’élection présidentielle américaine en 1980 pour le Parti des citoyens (en).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Formation et débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études jusqu'au bachelor à l'Université Columbia, puis obtient son master et son doctorat à Harvard. Au cours de la Seconde Guerre mondiale, il sert comme lieutenant au sein de l'US Navy. Après la guerre, il s'installe à Saint Louis dans le Missouri, où obtient un poste de professeur de physiologie des plantes à l'Université Washington, poste qu'il occupe pendant 34 ans.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la fin des années 1950, à la suite de ses travaux sur la présence de strontium-90 radioactif dans les dents de lait des enfants, Commoner s'engage dans la lutte contre les essais nucléaires. Il est notamment à l'origine d'une pétition avec Linus Pauling. Il écrit également plusieurs livres sur les effets écologiques néfastes des essais nucléaires en surface. En 1970, il est lauréat de l'International Humanist Award (prix l'humaniste international) de l'International Humanist and Ethical Union (Union internationale humaniste et éthique).
 </t>
@@ -573,7 +589,9 @@
           <t>Engagement politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1980, il fonde le Parti des citoyens (en) pour l'aider à véhiculer son message écologiste. Il est candidat à l’élection présidentielle américaine de 1980 sous la bannière de ce parti (sa colistière est La Donna Harris (en)), pour laquelle il obtient 234 294 suffrages soit 0,27 % des voix.
 </t>
@@ -604,7 +622,9 @@
           <t>Retour à la recherche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de cette candidature infructueuse, Commoner retourne à New York où il devient directeur du Centre de biologie et d'étude des systèmes naturels du Queens College. Il quitte ce poste en 2000 et est jusqu'à sa mort chercheur émérite au Queens College. 
 Il est membre de l'AAAS American Association for the Advancement of Science.
